--- a/ハートキャッチゲーム/Document/ハートゲーム全体仕様.xlsx
+++ b/ハートキャッチゲーム/Document/ハートゲーム全体仕様.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\ハートキャッチゲーム\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759C4C8B-12A3-4DB0-8C16-95B96A1DA879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC985C1D-29BC-4967-AC44-A431FCAB7F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{0E6474E0-E297-4460-96C4-47C7980EF7CA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{0E6474E0-E297-4460-96C4-47C7980EF7CA}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="全体仕様" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,20 +39,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>更新履歴</t>
-    <rPh sb="0" eb="4">
-      <t>コウシンリレキ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>変更内容</t>
-    <rPh sb="0" eb="4">
-      <t>ヘンコウナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
   <si>
     <t>変更履歴</t>
     <rPh sb="0" eb="4">
@@ -89,19 +75,16 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>概要</t>
-    <rPh sb="0" eb="2">
-      <t>ガイヨウ</t>
+    <t>更新履歴</t>
+    <rPh sb="0" eb="4">
+      <t>コウシンリレキ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>詳細説明</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セツメイ</t>
+    <t>変更内容</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンコウナイヨウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -119,6 +102,23 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>以降ゲーム名は「ハートゲーム」と呼称します</t>
+    <rPh sb="0" eb="2">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>このシートではハートゲームの概要について説明します</t>
     <rPh sb="14" eb="16">
       <t>ガイヨウ</t>
@@ -129,12 +129,19 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>以降ゲーム名は「ハートゲーム」と呼称します</t>
+    <t>詳細説明</t>
     <rPh sb="0" eb="2">
-      <t>イコウ</t>
+      <t>ショウサイ</t>
     </rPh>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
+    <rPh sb="2" eb="4">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>このゲームは制限時間内に上から落ちてくるハートをキャッチして愛を伝える落ち物ゲームです</t>
+    <rPh sb="6" eb="11">
+      <t>セイゲンジカンナイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -179,13 +186,6 @@
   </si>
   <si>
     <t>シーケンス</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>このゲームは制限時間内に上から落ちてくるハートをキャッチして愛を伝える落ち物ゲームです</t>
-    <rPh sb="6" eb="11">
-      <t>セイゲンジカンナイ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -295,7 +295,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -323,13 +323,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -787,8 +784,8 @@
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>151277</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -803,8 +800,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3612776" y="9188824"/>
-          <a:ext cx="4356848" cy="7467600"/>
+          <a:off x="3613898" y="9127192"/>
+          <a:ext cx="4387102" cy="12556189"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1698,14 +1695,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>32658</xdr:colOff>
+      <xdr:colOff>32659</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>32657</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1721,8 +1718,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8708572" y="9187543"/>
-          <a:ext cx="4408714" cy="3505200"/>
+          <a:off x="8683600" y="9127192"/>
+          <a:ext cx="2079652" cy="4387102"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2516,15 +2513,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>160906</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2540,8 +2537,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4419600" y="14218024"/>
-          <a:ext cx="1" cy="914400"/>
+          <a:off x="4424745" y="14108206"/>
+          <a:ext cx="1579" cy="302559"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2572,80 +2569,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>2039</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="フローチャート: 他ページ結合子 77">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00333D7D-098D-4CB2-960E-0A9E20E29FA1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8939851" y="14980024"/>
-          <a:ext cx="966149" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartOffpageConnector">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>ランキングへ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>5603</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>5603</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2660,8 +2593,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3935507" y="15132424"/>
-          <a:ext cx="968187" cy="762000"/>
+          <a:off x="3938869" y="18954750"/>
+          <a:ext cx="974911" cy="756398"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -2697,7 +2630,23 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ハイスコア</a:t>
+            <a:t>スコア</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>位</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:solidFill>
@@ -2723,6 +2672,2511 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>151279</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>159329</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{073F2695-D463-4199-AFE1-2972093A9963}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3938868" y="15469720"/>
+          <a:ext cx="971755" cy="756398"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>リザルト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3160</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="フローチャート: 他ページ結合子 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8400AFF-1A7F-49E1-88C9-39A84861C052}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3942028" y="14410765"/>
+          <a:ext cx="971752" cy="756397"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOffpageConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ゲーム終了</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>160907</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1580</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>151279</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線矢印コネクタ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DC82755-4ED5-49E2-BC6E-965281638EA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="2"/>
+          <a:endCxn id="36" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4424746" y="15167162"/>
+          <a:ext cx="3158" cy="302558"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>151278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>162485</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="ひし形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E65FDB-5BC5-416A-A4A2-7A24648E5215}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3938868" y="17738911"/>
+          <a:ext cx="974911" cy="756398"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>スコア２位</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>更新した？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>140072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>140074</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="ひし形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C56E9540-1C8E-4BB2-BAA1-CE9DE1903F5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3938869" y="16517470"/>
+          <a:ext cx="974911" cy="756398"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>スコア３位</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>更新した？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>160907</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>140072</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線矢印コネクタ 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17943065-8851-499C-80F1-E6E73B6C0912}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="2"/>
+          <a:endCxn id="58" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4424746" y="16226118"/>
+          <a:ext cx="1579" cy="291352"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>140074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線矢印コネクタ 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9615FFB-68CB-45BD-B0D3-F915E32406ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="58" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4426324" y="17273868"/>
+          <a:ext cx="1" cy="465044"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>5603</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直線矢印コネクタ 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B6E7E33-2466-4CEE-866E-9C3921FFAAE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="79" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4426324" y="18495310"/>
+          <a:ext cx="1" cy="459440"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1386</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>693</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="フローチャート: 結合子 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4A3B3C8-0E0A-4F29-8CB5-EB718AC523D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4590195" y="17285074"/>
+          <a:ext cx="161792" cy="151280"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Y</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161793</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="フローチャート: 結合子 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{163ED0A0-0550-4DEF-A7B2-32E8E39209C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4913780" y="16982515"/>
+          <a:ext cx="161793" cy="151280"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>N</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114137</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>113444</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="フローチャート: 結合子 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B74CB6-96C9-4C13-98A6-A37B0C8B530D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4540461" y="18495310"/>
+          <a:ext cx="161792" cy="151280"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Y</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>112752</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="フローチャート: 結合子 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A8347AF-6C2F-4B17-8EEE-C506082F89B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4864046" y="18192751"/>
+          <a:ext cx="161793" cy="151280"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>N</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2078</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1385</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="フローチャート: 結合子 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7046F38E-352B-4BC1-B523-CD81B22BEC04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4590887" y="19705545"/>
+          <a:ext cx="161792" cy="151280"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Y</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>692</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="フローチャート: 結合子 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{644E5C70-84FD-4679-85E8-7BD65A1D84CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4914472" y="19402986"/>
+          <a:ext cx="161793" cy="151280"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>N</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>128867</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>126829</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="フローチャート: 他ページ結合子 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F49988CF-D3F9-4848-A593-BF577A92C8EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6992471" y="16539883"/>
+          <a:ext cx="972873" cy="756397"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOffpageConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ランク外</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>変動なし</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>160907</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>140073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>128866</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="直線矢印コネクタ 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC1943ED-3814-4F40-9804-5D734A005D0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4424746" y="16226118"/>
+          <a:ext cx="1579" cy="291352"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>64434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>128867</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>75641</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="直線矢印コネクタ 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39A9789A-36ED-400B-B10B-7E5AD5903BCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="58" idx="3"/>
+          <a:endCxn id="72" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4913780" y="16906875"/>
+          <a:ext cx="2078691" cy="11207"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>160447</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="フローチャート: 他ページ結合子 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D662EF5C-1E59-41C6-B617-03993289DBE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6213662" y="17750118"/>
+          <a:ext cx="972873" cy="756397"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOffpageConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ランク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>位に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>スコアを入力</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>162485</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>75640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>75641</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="直線矢印コネクタ 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF76DF34-E427-4F7C-AD8F-624565C20586}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="57" idx="3"/>
+          <a:endCxn id="76" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4913779" y="18128316"/>
+          <a:ext cx="1299883" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>2039</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="フローチャート: 他ページ結合子 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{032ABA32-A5D8-4C68-8DC8-C332D8B6B673}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5565760" y="18960354"/>
+          <a:ext cx="972873" cy="756397"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOffpageConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ランク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>位に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>スコアを入力</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>75641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>2039</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>81243</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="直線矢印コネクタ 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F05E990D-E6B1-4DFF-B779-EC45F7107E40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="79" idx="3"/>
+          <a:endCxn id="80" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4913780" y="19338553"/>
+          <a:ext cx="651980" cy="5602"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2039</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>5604</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>5603</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="フローチャート: 他ページ結合子 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{877A2EF5-8208-4423-B0E2-01148F3B1169}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3940907" y="20478751"/>
+          <a:ext cx="972873" cy="756397"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOffpageConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ランク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>位に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>スコアを入力</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>155866</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>5603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1020</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>5604</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="直線矢印コネクタ 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3816AD43-06C7-4B23-A6EA-E68EBD97034F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:endCxn id="82" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4419705" y="19722354"/>
+          <a:ext cx="7639" cy="756397"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1020</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>75639</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>32659</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>5603</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="コネクタ: カギ線 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08530E73-87A3-43FA-AAD8-35324E73A338}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="82" idx="2"/>
+          <a:endCxn id="47" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="1598269" y="14149818"/>
+          <a:ext cx="9914405" cy="4256256"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2306"/>
+            <a:gd name="adj2" fmla="val 92047"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1021</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="直線矢印コネクタ 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6D0B751-39D8-4BCA-9FF9-5F6B1302ADFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="80" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6051176" y="19716751"/>
+          <a:ext cx="1021" cy="1815353"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>161466</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>161466</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="直線矢印コネクタ 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{256E1130-A43E-4D26-81A9-B25F5D5B9684}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="76" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6700099" y="18506515"/>
+          <a:ext cx="0" cy="3025589"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>127849</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>127849</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="直線矢印コネクタ 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B8DCEDE-008B-4132-A3FD-3CC0AF1557F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="72" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7478908" y="17296280"/>
+          <a:ext cx="0" cy="4235824"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>162485</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="フローチャート: 他ページ結合子 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8444771-DD7E-4AEF-B5E0-C51418A44CC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9138397" y="9581029"/>
+          <a:ext cx="974912" cy="756398"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOffpageConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>ランク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>1~3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>位の中に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>直前のスコアがあれば点滅</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>162485</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>140073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>140073</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="フローチャート: 他ページ結合子 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6083E5E6-0690-4D23-A244-AA3A3351A0C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9138397" y="10628779"/>
+          <a:ext cx="974912" cy="756398"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOffpageConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ランク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>1~3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>位</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>151278</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="ひし形 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{247518E9-A630-4F64-A4D4-75A2999F9D49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9138398" y="11850221"/>
+          <a:ext cx="974911" cy="756396"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>○○キーを</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>押した？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>151278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="フローチャート: 結合子 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CAF83DB-96A3-4925-B3A6-DB749183DC18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9788339" y="12757896"/>
+          <a:ext cx="162485" cy="151280"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Y</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>151278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>151278</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="フローチャート: 結合子 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{084ED778-152D-4987-A254-619E4A7E78A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10113309" y="12455337"/>
+          <a:ext cx="162485" cy="151280"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>N</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="直線矢印コネクタ 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F585B7FC-C890-480E-878B-C7C3574FC34B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="90" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9625853" y="10337427"/>
+          <a:ext cx="0" cy="302559"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="直線矢印コネクタ 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6CBAB9A-6ECD-49C8-80B9-36194B7E628B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="92" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9625854" y="11396382"/>
+          <a:ext cx="0" cy="453839"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>64433</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>75639</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="コネクタ: カギ線 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D97F0C31-C94C-4377-875D-D672F6DBC4C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="92" idx="3"/>
+          <a:endCxn id="91" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10113309" y="11006978"/>
+          <a:ext cx="12700" cy="1221441"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1800000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>151278</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="コネクタ: カギ線 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC6B8431-7D3C-49C7-BE73-71D6114B4882}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="92" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="7942170" y="9298082"/>
+          <a:ext cx="4992219" cy="1624852"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -26801"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3029,32 +5483,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="5" max="5" width="5.296875" customWidth="1"/>
-    <col min="6" max="6" width="7.296875" customWidth="1"/>
-    <col min="7" max="7" width="11.796875" customWidth="1"/>
+    <col min="5" max="5" width="5.375" customWidth="1"/>
+    <col min="6" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="4" customFormat="1" ht="32.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" s="4" customFormat="1" ht="32.25" x14ac:dyDescent="0.7">
       <c r="B1" s="3"/>
       <c r="E1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E4" s="6" t="s">
+      <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3069,68 +5523,68 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="D2" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="10" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="D2" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D8" s="8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="E10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F14" t="s">
+    <row r="12" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="F15" t="s">
+    <row r="14" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="4:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.7">
       <c r="D17" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/ハートキャッチゲーム/Document/ハートゲーム全体仕様.xlsx
+++ b/ハートキャッチゲーム/Document/ハートゲーム全体仕様.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新しいフォルダー\ハートキャッチゲーム\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC985C1D-29BC-4967-AC44-A431FCAB7F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8581A6B-2EDA-45AC-8999-4E2A25B472B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{0E6474E0-E297-4460-96C4-47C7980EF7CA}"/>
   </bookViews>
@@ -900,12 +900,20 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>P</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>○○キーを</a:t>
+            <a:t>キーを</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
             <a:solidFill>
@@ -1325,12 +1333,20 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>○○キーを</a:t>
+            <a:t>キーを</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
             <a:solidFill>
@@ -2094,7 +2110,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>○○秒</a:t>
+            <a:t>３０秒</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
             <a:solidFill>
@@ -4749,14 +4765,22 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>○○キーを</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:t>T</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>キーを</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -4765,14 +4789,14 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>押した？</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
